--- a/ProjectPracticeAutomation/TestData/excelsheet.xlsx
+++ b/ProjectPracticeAutomation/TestData/excelsheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{65AA034E-48C7-48ED-8B45-B22A0A0210DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B08700C6-8032-4797-903A-944ADD614355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="3765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12255" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>madhumisavita</t>
   </si>
   <si>
-    <t>pavicaddy@gmail.com</t>
-  </si>
-  <si>
-    <t>pavimadhusavi</t>
+    <t>vinodhinielango92@gmail.com</t>
+  </si>
+  <si>
+    <t>vinomadhu25@</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -482,6 +482,7 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{F21013C7-6B17-435D-8461-7858F432CA3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
